--- a/usersList.xlsx
+++ b/usersList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>USER LIST REPORT</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>jomar otoc</t>
+    <t>Minerva Chan</t>
   </si>
   <si>
     <t>Cashier</t>
@@ -50,37 +50,13 @@
     <t>C0001</t>
   </si>
   <si>
+    <t>1298-1212</t>
+  </si>
+  <si>
     <t>2024-04-25</t>
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Cherry Mae Labadan</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>A0010</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>Anne Victoria Otoc</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>M0007</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>Suspended</t>
   </si>
 </sst>
 </file>
@@ -459,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G5" sqref="G5"/>
@@ -468,12 +444,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="4" max="4" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="24.565" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="20.995" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:10">
@@ -517,76 +493,15 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2">
-        <v>121219021</v>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2">
-        <v>21212</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2">
-        <v>21212</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/usersList.xlsx
+++ b/usersList.xlsx
@@ -41,7 +41,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Minerva Chan</t>
+    <t>Anne Victoria Otoc</t>
   </si>
   <si>
     <t>Cashier</t>
@@ -50,10 +50,10 @@
     <t>C0001</t>
   </si>
   <si>
-    <t>1298-1212</t>
-  </si>
-  <si>
-    <t>2024-04-25</t>
+    <t>12212-1212</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
   </si>
   <si>
     <t>Active</t>
@@ -444,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="4" max="4" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="24.565" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="20.995" bestFit="true" customWidth="true" style="0"/>

--- a/usersList.xlsx
+++ b/usersList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>USER LIST REPORT</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Jomar Otoc</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>A0001</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>Suspended</t>
   </si>
   <si>
     <t>Anne Victoria Otoc</t>
@@ -435,7 +450,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G5" sqref="G5"/>
@@ -449,7 +464,7 @@
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="20.995" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:10">
@@ -493,14 +508,37 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="2">
+        <v>21212</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
